--- a/public/final-Vincents-Sphere-V2.xlsx
+++ b/public/final-Vincents-Sphere-V2.xlsx
@@ -180,9 +180,6 @@
     <t>\Autumn 2020\Toasted marshmallow 8oz price 800 taka.jpg</t>
   </si>
   <si>
-    <t>\Autumn 2020\Toasted marshmallow 9oz price-850.jpg</t>
-  </si>
-  <si>
     <t>Autumn</t>
   </si>
   <si>
@@ -326,37 +323,16 @@
     <t>\satin scrunchie\Satin scrunchies per piece  price-60, set of 10 price- 550 03.jpg</t>
   </si>
   <si>
-    <t>\satin scrunchie\Satin scrunchies per piece  price-60, set of 10 price- 550 04.jpg</t>
-  </si>
-  <si>
     <t>\satin scrunchie\Satin scrunchies per piece  price-60, set of 10 price- 550 05.jpg</t>
   </si>
   <si>
-    <t>\satin scrunchie\Satin scrunchies per piece  price-60, set of 10 price- 550.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Satin Mask </t>
   </si>
   <si>
     <t>Satin Mask Black</t>
   </si>
   <si>
-    <t>\satin mask\Satin Mask Black per piece-150 taka</t>
-  </si>
-  <si>
     <t>\satin mask\Satin mask bottle green per piece price-150.jpg</t>
-  </si>
-  <si>
-    <t>\satin mask\Satin mask COPPER per piece price-150</t>
-  </si>
-  <si>
-    <t>\satin mask\Satin mask GO PASTEL set of 4 price-500.jpg</t>
-  </si>
-  <si>
-    <t>\satin mask\Satin mask GREY per piece price-150.jpg</t>
-  </si>
-  <si>
-    <t>\satin mask\Satin Mask Lavender per piece 150.jpg</t>
   </si>
   <si>
     <t>Satin Mask Lavender</t>
@@ -529,6 +505,30 @@
 In modern days dreamcatchers are used to gave an earthy, modern vibe to our rooms. These dream catchers are the perfect addition to your bedroom sanctuary. These will give your bedroom a peaceful natural vibe!
 But do you know the history behind dreamcathers?
 How exactly do dream catchers. . . well, catch dreams? Some believe good dreams pass through the web. They float down the hanging beads and feathers to sleeping children. Bad dreams, however, are caught in the web. As the first rays of the morning light hit the dream catcher, the bad dreams disappear.</t>
+  </si>
+  <si>
+    <t>\Autumn 2020\Toasted marshmallow 9oz price-850.jpeg</t>
+  </si>
+  <si>
+    <t>\satin scrunchie\Satin scrunchies per piece  price-60, set of 10 price- 550 04.jpeg</t>
+  </si>
+  <si>
+    <t>\satin scrunchie\Satin scrunchies per piece  price-60, set of 10 price- 550.jpeg</t>
+  </si>
+  <si>
+    <t>\satin mask\Satin Mask Black per piece-150 taka.jpg</t>
+  </si>
+  <si>
+    <t>\satin mask\Satin mask COPPER per piece price-150.jpeg</t>
+  </si>
+  <si>
+    <t>\satin mask\Satin mask GO PASTEL set of 4 price-500.jpeg</t>
+  </si>
+  <si>
+    <t>\satin mask\Satin mask GREY per piece price-150.jpeg</t>
+  </si>
+  <si>
+    <t>\satin mask\Satin Mask Lavender per piece 150.jpeg</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>3</v>
@@ -1124,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>
@@ -1176,10 +1176,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>3</v>
@@ -1202,10 +1202,10 @@
         <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>3</v>
@@ -1228,10 +1228,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>3</v>
@@ -1254,10 +1254,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>3</v>
@@ -1280,10 +1280,10 @@
         <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>3</v>
@@ -1292,7 +1292,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1306,10 +1306,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1332,10 +1332,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>3</v>
@@ -1344,7 +1344,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1358,10 +1358,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1384,10 +1384,10 @@
         <v>35</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>3</v>
@@ -1396,12 +1396,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
@@ -1410,10 +1410,10 @@
         <v>42</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>17</v>
@@ -1422,12 +1422,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>47</v>
@@ -1436,10 +1436,10 @@
         <v>42</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>15</v>
@@ -1448,12 +1448,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>48</v>
@@ -1462,10 +1462,10 @@
         <v>42</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>3</v>
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>46</v>
@@ -1488,10 +1488,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>17</v>
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>49</v>
@@ -1514,10 +1514,10 @@
         <v>43</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>15</v>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>50</v>
@@ -1540,10 +1540,10 @@
         <v>43</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>3</v>
@@ -1552,12 +1552,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>51</v>
@@ -1566,10 +1566,10 @@
         <v>44</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>17</v>
@@ -1578,12 +1578,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>52</v>
@@ -1592,10 +1592,10 @@
         <v>44</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>15</v>
@@ -1604,24 +1604,24 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>3</v>
@@ -1630,24 +1630,24 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>3</v>
@@ -1656,24 +1656,24 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>3</v>
@@ -1682,24 +1682,24 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>3</v>
@@ -1708,24 +1708,24 @@
         <v>850</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>3</v>
@@ -1734,24 +1734,24 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>3</v>
@@ -1765,19 +1765,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>3</v>
@@ -1788,22 +1788,22 @@
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
@@ -1812,22 +1812,22 @@
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5">
@@ -1836,20 +1836,20 @@
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="5">
@@ -1858,20 +1858,20 @@
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="5">
@@ -1880,20 +1880,20 @@
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="5">
@@ -1902,20 +1902,20 @@
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="5">
@@ -1924,16 +1924,16 @@
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2002,21 +2002,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2126,19 +2126,19 @@
     </row>
     <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="4"/>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -2168,16 +2168,16 @@
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2208,16 +2208,16 @@
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2228,16 +2228,16 @@
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2248,19 +2248,19 @@
     </row>
     <row r="53" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="4"/>
